--- a/data.xlsx
+++ b/data.xlsx
@@ -1295,16 +1295,16 @@
     <t>下列哪一项是需要立即进行电除颤（     )。</t>
   </si>
   <si>
-    <t>A、心室纤维性颤动</t>
-  </si>
-  <si>
-    <t>B、心房纤维性颤动</t>
-  </si>
-  <si>
-    <t>C、心博停止</t>
-  </si>
-  <si>
-    <t>D、以上都可以</t>
+    <t>心室纤维性颤动</t>
+  </si>
+  <si>
+    <t>心房纤维性颤动</t>
+  </si>
+  <si>
+    <t>心博停止</t>
+  </si>
+  <si>
+    <t>以上都可以</t>
   </si>
   <si>
     <t>骨折固定时，使用夹板长度应（     )。</t>
@@ -1334,16 +1334,16 @@
     <t>心绞痛疼痛性质为（     )。</t>
   </si>
   <si>
-    <t>A、紧缩压榨感</t>
-  </si>
-  <si>
-    <t>B、钝痛</t>
-  </si>
-  <si>
-    <t>C、锐痛</t>
-  </si>
-  <si>
-    <t>D、持续痛</t>
+    <t>紧缩压榨感</t>
+  </si>
+  <si>
+    <t>钝痛</t>
+  </si>
+  <si>
+    <t>锐痛</t>
+  </si>
+  <si>
+    <t>持续痛</t>
   </si>
   <si>
     <t>轻症中暑的体温通常会超过（     )。</t>
@@ -1367,16 +1367,16 @@
     <t>肩关节脱位最多见的类型是（     )。</t>
   </si>
   <si>
-    <t>A、前脱位</t>
-  </si>
-  <si>
-    <t>B、后脱位</t>
-  </si>
-  <si>
-    <t>C、下脱位</t>
-  </si>
-  <si>
-    <t>D、盂上脱位</t>
+    <t>前脱位</t>
+  </si>
+  <si>
+    <t>后脱位</t>
+  </si>
+  <si>
+    <t>下脱位</t>
+  </si>
+  <si>
+    <t>盂上脱位</t>
   </si>
   <si>
     <t>踝关节扭伤的治疗，错误的是（     )。</t>
@@ -1397,16 +1397,16 @@
     <t>烫伤急救五步：（     )。</t>
   </si>
   <si>
-    <t>A、冲--脱--泡--盖--送</t>
-  </si>
-  <si>
-    <t>B、泡--盖--送--冲--脱</t>
-  </si>
-  <si>
-    <t>C、冲--泡--脱--盖--送</t>
-  </si>
-  <si>
-    <t>D、泡--脱--冲--盖--送</t>
+    <t>冲--脱--泡--盖--送</t>
+  </si>
+  <si>
+    <t>泡--盖--送--冲--脱</t>
+  </si>
+  <si>
+    <t>冲--泡--脱--盖--送</t>
+  </si>
+  <si>
+    <t>泡--脱--冲--盖--送</t>
   </si>
   <si>
     <t>判断</t>
@@ -2790,8 +2790,8 @@
   <sheetPr/>
   <dimension ref="A1:J131"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5244,7 +5244,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="92" ht="24" spans="1:10">
+    <row r="92" spans="1:10">
       <c r="A92" s="11">
         <v>91</v>
       </c>

--- a/data.xlsx
+++ b/data.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="495">
   <si>
     <t>序号</t>
   </si>
@@ -62,7 +62,7 @@
     <t>单选</t>
   </si>
   <si>
-    <t>心跳骤停后，救命的黄金时间是（     )。</t>
+    <t>心跳骤停后，救命的黄金时间是（    ）。</t>
   </si>
   <si>
     <t>3~5分钟</t>
@@ -74,7 +74,7 @@
     <t>5~10分钟</t>
   </si>
   <si>
-    <t>自动体外除颤器使用的正确步骤是（     )①插上插头②贴上电极片③打开电源④分析心率⑤除颤。</t>
+    <t>自动体外除颤器使用的正确步骤是（    ）①插上插头②贴上电极片③打开电源④分析心率⑤除颤。</t>
   </si>
   <si>
     <t>①②③④⑤</t>
@@ -86,7 +86,7 @@
     <t>③②①④⑤</t>
   </si>
   <si>
-    <t>关于AED电除颤注意事项，说法不正确的是（     )。</t>
+    <t>关于AED电除颤注意事项，说法不正确的是（    ）。</t>
   </si>
   <si>
     <t>在AED分析心律时要求操作者离开患者</t>
@@ -98,25 +98,22 @@
     <t>在AED充电完毕，给予电击前，有人接触患者也无妨</t>
   </si>
   <si>
-    <t>重庆江北国际机场T2航站楼内一共有几台自动体外除颤器（     )。</t>
-  </si>
-  <si>
-    <t>重庆江北国际机场T3A航站楼内一共有几台自动体外除颤器（     )。</t>
-  </si>
-  <si>
-    <t>重庆江北国际机场T3B航站楼内一共有几台自动体外除颤器（     )。</t>
-  </si>
-  <si>
-    <t>重庆江北国际机场急救电话（     )。</t>
-  </si>
-  <si>
-    <t>重庆江北国际机场内线急救电话（     )。</t>
-  </si>
-  <si>
-    <t>119C.8120</t>
-  </si>
-  <si>
-    <t>下列那种情况，不需要拨打120（     )。</t>
+    <t>重庆江北国际机场T2航站楼内一共有几台自动体外除颤器（    ）。</t>
+  </si>
+  <si>
+    <t>重庆江北国际机场T3A航站楼内一共有几台自动体外除颤器（    ）。</t>
+  </si>
+  <si>
+    <t>重庆江北国际机场T3B航站楼内一共有几台自动体外除颤器（    ）。</t>
+  </si>
+  <si>
+    <t>重庆江北国际机场急救电话（    ）。</t>
+  </si>
+  <si>
+    <t>重庆江北国际机场内线急救电话（    ）。</t>
+  </si>
+  <si>
+    <t>下列那种情况，不需要拨打120（    ）。</t>
   </si>
   <si>
     <t>购买感冒药</t>
@@ -131,7 +128,7 @@
     <t>大吐血、大咯血</t>
   </si>
   <si>
-    <t>重庆江北国际机场T2航站楼内未投放自动体外除颤器位置（     )。</t>
+    <t>重庆江北国际机场T2航站楼内未投放自动体外除颤器位置（    ）。</t>
   </si>
   <si>
     <t>T2A航站楼2B值机岛北侧</t>
@@ -146,7 +143,7 @@
     <t>T2B航站楼A指廊远机位</t>
   </si>
   <si>
-    <t>重庆江北国际机场T3A航站楼内未投放自动体外除颤器分布位置（     )。</t>
+    <t>重庆江北国际机场T3A航站楼内未投放自动体外除颤器分布位置（    ）。</t>
   </si>
   <si>
     <t>T3A航站楼3A值机岛西侧</t>
@@ -161,7 +158,7 @@
     <t>T3A航站楼E03登机口南侧</t>
   </si>
   <si>
-    <t>院外心脏骤停生存链中不包括哪个环节？（     )</t>
+    <t>院外心脏骤停生存链中不包括哪个环节？（    ）</t>
   </si>
   <si>
     <t>监测和预防</t>
@@ -176,7 +173,7 @@
     <t>快速除颤</t>
   </si>
   <si>
-    <t>高质量的心脏按压不包括哪一项？（     )</t>
+    <t>高质量的心脏按压不包括哪一项？（    ）</t>
   </si>
   <si>
     <t>使胸廓充分回弹</t>
@@ -191,7 +188,7 @@
     <t>减少胸外按压中断的次数和时间</t>
   </si>
   <si>
-    <t>正常成人呼吸的频率是：（     )。</t>
+    <t>正常成人呼吸的频率是：（    ）。</t>
   </si>
   <si>
     <t>12～20次/分钟</t>
@@ -206,7 +203,7 @@
     <t>8～15次/分钟</t>
   </si>
   <si>
-    <t>正常成人心跳的频率是：（     )。</t>
+    <t>正常成人心跳的频率是：（    ）。</t>
   </si>
   <si>
     <t>50次/分钟</t>
@@ -221,7 +218,7 @@
     <t>120～140次/分钟</t>
   </si>
   <si>
-    <t>为成人进行心肺复苏时，胸外心脏按压的位置是（     )。</t>
+    <t>为成人进行心肺复苏时，胸外心脏按压的位置是（    ）。</t>
   </si>
   <si>
     <t>胸骨下1/3处</t>
@@ -236,10 +233,22 @@
     <t>胸部两乳头连线中点（适用于大多数体型正常的成年人）</t>
   </si>
   <si>
-    <t>成人单人心肺复苏时按压与吹气之比为（     )。</t>
-  </si>
-  <si>
-    <t>开放气道时，成人患者头部后仰的角度是（     )。</t>
+    <t>成人单人心肺复苏时按压与吹气之比为（    ）。</t>
+  </si>
+  <si>
+    <t>30:2</t>
+  </si>
+  <si>
+    <t>15:2</t>
+  </si>
+  <si>
+    <t>15:1</t>
+  </si>
+  <si>
+    <t>5:1</t>
+  </si>
+  <si>
+    <t>开放气道时，成人患者头部后仰的角度是（    ）。</t>
   </si>
   <si>
     <t>90°</t>
@@ -254,7 +263,7 @@
     <t>20°</t>
   </si>
   <si>
-    <t>成人胸外心脏按压的频率是（     )。</t>
+    <t>成人胸外心脏按压的频率是（    ）。</t>
   </si>
   <si>
     <t>100～120次/分钟</t>
@@ -266,7 +275,7 @@
     <t>160～200次/分钟</t>
   </si>
   <si>
-    <t>成人胸外心脏按压的深度是（     )。</t>
+    <t>成人胸外心脏按压的深度是（    ）。</t>
   </si>
   <si>
     <t>3～4cm</t>
@@ -281,7 +290,7 @@
     <t>6～7cm</t>
   </si>
   <si>
-    <t>为成人做人工通气时的气量大约为（     )。</t>
+    <t>为成人做人工通气时的气量大约为（    ）。</t>
   </si>
   <si>
     <t>1000～1200ml</t>
@@ -296,7 +305,7 @@
     <t>500～600ml</t>
   </si>
   <si>
-    <t>急性气道异物梗阻的主要表现不包括（     )。</t>
+    <t>急性气道异物梗阻的主要表现不包括（    ）。</t>
   </si>
   <si>
     <t>突然呼吸困难</t>
@@ -311,7 +320,7 @@
     <t>不断打喷嚏</t>
   </si>
   <si>
-    <t>急性气道异物梗阻解除的方法不包括（     )。</t>
+    <t>急性气道异物梗阻解除的方法不包括（    ）。</t>
   </si>
   <si>
     <t>手指掏出法</t>
@@ -326,7 +335,7 @@
     <t>腹部冲击法</t>
   </si>
   <si>
-    <t>指压止血方法建议压迫回流血管于（     )，从而达到阻断源流。</t>
+    <t>指压止血方法建议压迫回流血管于（    ），从而达到阻断源流。</t>
   </si>
   <si>
     <t>骨面</t>
@@ -341,7 +350,7 @@
     <t>其他物体</t>
   </si>
   <si>
-    <t>前臂指压止血时，应该（     )上肢。</t>
+    <t>前臂指压止血时，应该（    ）上肢。</t>
   </si>
   <si>
     <t>下垂</t>
@@ -356,7 +365,7 @@
     <t>活动</t>
   </si>
   <si>
-    <t>止血带止血方法，适用于（     )，且多在其他方法无效时。</t>
+    <t>止血带止血方法，适用于（    ），且多在其他方法无效时。</t>
   </si>
   <si>
     <t>头部</t>
@@ -371,7 +380,7 @@
     <t>四肢</t>
   </si>
   <si>
-    <t>常用的包扎与止血材料包括（     )。</t>
+    <t>常用的包扎与止血材料包括（    ）。</t>
   </si>
   <si>
     <t>铁丝</t>
@@ -386,7 +395,7 @@
     <t>干净衣服</t>
   </si>
   <si>
-    <t>伤口有较多泥沙时，公众应该（     )，单纯加盖敷料，并立即就诊。</t>
+    <t>伤口有较多泥沙时，公众应该（    ），单纯加盖敷料，并立即就诊。</t>
   </si>
   <si>
     <t>用泡菜水冲洗</t>
@@ -401,7 +410,7 @@
     <t>不冲洗</t>
   </si>
   <si>
-    <t>骨折固定原则（     )。</t>
+    <t>骨折固定原则（    ）。</t>
   </si>
   <si>
     <t>不移动，不回纳</t>
@@ -416,7 +425,7 @@
     <t>可移动，可回纳</t>
   </si>
   <si>
-    <t>骨折固定的时候为什么要露出手指（     )。</t>
+    <t>骨折固定的时候为什么要露出手指（    ）。</t>
   </si>
   <si>
     <t>透气</t>
@@ -431,7 +440,7 @@
     <t>降温</t>
   </si>
   <si>
-    <t>下肢骨折时应该先固定（     )。</t>
+    <t>下肢骨折时应该先固定（    ）。</t>
   </si>
   <si>
     <t>骨折上端</t>
@@ -446,7 +455,7 @@
     <t>骨折周围</t>
   </si>
   <si>
-    <t>骨折固定时，使用夹板宽度应选用（     )。</t>
+    <t>骨折固定时，使用夹板宽度应选用（    ）。</t>
   </si>
   <si>
     <t>超躯体2倍</t>
@@ -461,7 +470,7 @@
     <t>小于躯体</t>
   </si>
   <si>
-    <t>环形包扎适用于肢体（     )的包扎。</t>
+    <t>环形包扎适用于肢体（    ）的包扎。</t>
   </si>
   <si>
     <t>较粗肢体</t>
@@ -476,7 +485,7 @@
     <t>肥胖病人</t>
   </si>
   <si>
-    <t>应急时搬运病人的主要目的是为了（     )。</t>
+    <t>应急时搬运病人的主要目的是为了（    ）。</t>
   </si>
   <si>
     <t>脱离危险环境</t>
@@ -491,7 +500,7 @@
     <t>缓解交通</t>
   </si>
   <si>
-    <t>椎体受伤后，采用木板固定时应注意选用（     )木板为宜。</t>
+    <t>椎体受伤后，采用木板固定时应注意选用（    ）木板为宜。</t>
   </si>
   <si>
     <t>宽木板</t>
@@ -506,7 +515,7 @@
     <t>比人略小</t>
   </si>
   <si>
-    <t>椎体受伤后，怎样搬动病人（     )为宜。</t>
+    <t>椎体受伤后，怎样搬动病人（    ）为宜。</t>
   </si>
   <si>
     <t>平托</t>
@@ -521,7 +530,7 @@
     <t>抱</t>
   </si>
   <si>
-    <t>螺旋包扎，最适应于包扎（     )。</t>
+    <t>螺旋包扎，最适应于包扎（    ）。</t>
   </si>
   <si>
     <t>头</t>
@@ -533,7 +542,7 @@
     <t>腹</t>
   </si>
   <si>
-    <t>手部离断时，止血方法首选（     )。</t>
+    <t>手部离断时，止血方法首选（    ）。</t>
   </si>
   <si>
     <t>绞棒止血</t>
@@ -548,19 +557,19 @@
     <t>加压包扎</t>
   </si>
   <si>
-    <t>绞棒止血时，每隔（     )分钟放松绞棒一次。</t>
+    <t>绞棒止血时，每隔（    ）分钟放松绞棒一次。</t>
   </si>
   <si>
     <t>30-60</t>
   </si>
   <si>
-    <t>绞棒止血时，每次放松绞棒（     )分钟。</t>
+    <t>绞棒止血时，每次放松绞棒（    ）分钟。</t>
   </si>
   <si>
     <t>1~3</t>
   </si>
   <si>
-    <t>直接压迫止血方法使用位置为（     )。</t>
+    <t>直接压迫止血方法使用位置为（    ）。</t>
   </si>
   <si>
     <t>伤口上方</t>
@@ -575,7 +584,7 @@
     <t>伤口周围</t>
   </si>
   <si>
-    <t>头顶帽式包扎时三角巾的底边应置于伤员的哪个部位（     )。</t>
+    <t>头顶帽式包扎时三角巾的底边应置于伤员的哪个部位（    ）。</t>
   </si>
   <si>
     <t>前额齐眉处</t>
@@ -590,7 +599,7 @@
     <t>前额中线</t>
   </si>
   <si>
-    <t>环形包扎法常用于身体哪些部位的包扎（     )。</t>
+    <t>环形包扎法常用于身体哪些部位的包扎（    ）。</t>
   </si>
   <si>
     <t>肢体粗细较均匀处</t>
@@ -605,13 +614,13 @@
     <t>手足包扎</t>
   </si>
   <si>
-    <t>螺旋包扎适用于身体哪些部位的包扎（     )。</t>
+    <t>螺旋包扎适用于身体哪些部位的包扎（    ）。</t>
   </si>
   <si>
     <t>粗细相等的肢体</t>
   </si>
   <si>
-    <t>骨折急救处理时下述中最重要的是（     )。</t>
+    <t>骨折急救处理时下述中最重要的是（    ）。</t>
   </si>
   <si>
     <t>立即复位固定</t>
@@ -626,7 +635,7 @@
     <t>清洁创口后固定患肢</t>
   </si>
   <si>
-    <t>以下不属于现场包扎目的是（     )。</t>
+    <t>以下不属于现场包扎目的是（    ）。</t>
   </si>
   <si>
     <t>止血</t>
@@ -641,7 +650,7 @@
     <t>避免神经损伤</t>
   </si>
   <si>
-    <t>有关伤口的分类错误的是（     )。</t>
+    <t>有关伤口的分类错误的是（    ）。</t>
   </si>
   <si>
     <t>割伤</t>
@@ -656,7 +665,7 @@
     <t>车祸伤</t>
   </si>
   <si>
-    <t>加压包扎止血时敷料要超过伤口至少（     )。</t>
+    <t>加压包扎止血时敷料要超过伤口至少（    ）。</t>
   </si>
   <si>
     <t>与伤口大小相同</t>
@@ -671,7 +680,7 @@
     <t>与伤口周边1cm</t>
   </si>
   <si>
-    <t>现场四肢包扎的原则不包括（     )。</t>
+    <t>现场四肢包扎的原则不包括（    ）。</t>
   </si>
   <si>
     <t>远心端开始</t>
@@ -686,7 +695,7 @@
     <t>松紧适宜</t>
   </si>
   <si>
-    <t>淹溺致死原因主要为（     )。</t>
+    <t>淹溺致死原因主要为（    ）。</t>
   </si>
   <si>
     <t>水进入呼吸道和肺部</t>
@@ -701,7 +710,7 @@
     <t>衣服浸湿</t>
   </si>
   <si>
-    <t>如发现溺水者离岸不远，我们应该采用以下什么救援方法为宜（     )。</t>
+    <t>如发现溺水者离岸不远，我们应该采用以下什么救援方法为宜（    ）。</t>
   </si>
   <si>
     <t>跳入水中救援</t>
@@ -716,7 +725,7 @@
     <t>独自离开</t>
   </si>
   <si>
-    <t>手拉手的人链方式救援时，人应该（     )。</t>
+    <t>手拉手的人链方式救援时，人应该（    ）。</t>
   </si>
   <si>
     <t>同一方向</t>
@@ -731,7 +740,7 @@
     <t>每3个人一个方向</t>
   </si>
   <si>
-    <t>狂犬病主要临床表现不包括（     )。</t>
+    <t>狂犬病主要临床表现不包括（    ）。</t>
   </si>
   <si>
     <t>恐风怕水</t>
@@ -746,7 +755,7 @@
     <t>狗叫</t>
   </si>
   <si>
-    <t>狂犬病又称为（     )。</t>
+    <t>狂犬病又称为（    ）。</t>
   </si>
   <si>
     <t>恐风症</t>
@@ -761,7 +770,7 @@
     <t>恐土症</t>
   </si>
   <si>
-    <t>狗咬伤急救不包括（     )。</t>
+    <t>狗咬伤急救不包括（    ）。</t>
   </si>
   <si>
     <t>肥皂水清洗</t>
@@ -776,7 +785,7 @@
     <t>使用狂犬病疫苗</t>
   </si>
   <si>
-    <t>蛇咬伤毒性不包括（     )。</t>
+    <t>蛇咬伤毒性不包括（    ）。</t>
   </si>
   <si>
     <t>神经毒性</t>
@@ -791,7 +800,7 @@
     <t>呼吸毒性</t>
   </si>
   <si>
-    <t>蛇咬伤救治原则准确的是（     )。</t>
+    <t>蛇咬伤救治原则准确的是（    ）。</t>
   </si>
   <si>
     <t>抬高伤口</t>
@@ -806,7 +815,7 @@
     <t>放低伤口、制动</t>
   </si>
   <si>
-    <t>蛇咬伤救治时处理不正确的是（     )。</t>
+    <t>蛇咬伤救治时处理不正确的是（    ）。</t>
   </si>
   <si>
     <t>盐水冲洗伤口</t>
@@ -821,7 +830,7 @@
     <t>泡菜水冲洗伤口</t>
   </si>
   <si>
-    <t>蛇咬伤不仅需要打抗毒血清，还需要使用（     )。</t>
+    <t>蛇咬伤不仅需要打抗毒血清，还需要使用（    ）。</t>
   </si>
   <si>
     <t>狂犬病疫苗</t>
@@ -836,7 +845,7 @@
     <t>艾滋病疫苗</t>
   </si>
   <si>
-    <t>烧伤分度中，I度烧伤主要表现中不包括（     )。</t>
+    <t>烧伤分度中，I度烧伤主要表现中不包括（    ）。</t>
   </si>
   <si>
     <t>红</t>
@@ -851,7 +860,7 @@
     <t>痛觉减退</t>
   </si>
   <si>
-    <t>烧伤分度时常用（     )作为估算烧伤面积的参照物。</t>
+    <t>烧伤分度时常用（    ）作为估算烧伤面积的参照物。</t>
   </si>
   <si>
     <t>手</t>
@@ -866,7 +875,7 @@
     <t>臀</t>
   </si>
   <si>
-    <t>电击伤救援原则不包括（     )。</t>
+    <t>电击伤救援原则不包括（    ）。</t>
   </si>
   <si>
     <t>脱离电源</t>
@@ -881,7 +890,7 @@
     <t>心肺复苏</t>
   </si>
   <si>
-    <t>电击伤脱离电源不能采用方法为（     )。</t>
+    <t>电击伤脱离电源不能采用方法为（    ）。</t>
   </si>
   <si>
     <t>关闭电闸</t>
@@ -896,7 +905,7 @@
     <t>用水泼灭电火花</t>
   </si>
   <si>
-    <t>毒蛇特征不包括（     )。</t>
+    <t>毒蛇特征不包括（    ）。</t>
   </si>
   <si>
     <t>头呈三角形</t>
@@ -911,7 +920,7 @@
     <t>尾巴较大</t>
   </si>
   <si>
-    <t>药物中毒临床表现不包括（     )。</t>
+    <t>药物中毒临床表现不包括（    ）。</t>
   </si>
   <si>
     <t>头痛、头晕</t>
@@ -926,7 +935,7 @@
     <t>血尿</t>
   </si>
   <si>
-    <t>怀疑煤气泄漏时，不宜选择（     )。</t>
+    <t>怀疑煤气泄漏时，不宜选择（    ）。</t>
   </si>
   <si>
     <t>脱离中毒环境</t>
@@ -941,7 +950,7 @@
     <t>关闭煤气</t>
   </si>
   <si>
-    <t>当我们生命安全能保证时，对剩余毒物应该（     )。</t>
+    <t>当我们生命安全能保证时，对剩余毒物应该（    ）。</t>
   </si>
   <si>
     <t>扔掉</t>
@@ -956,7 +965,7 @@
     <t>放回原地</t>
   </si>
   <si>
-    <t>下列哪一项不是常见的急症？（     )</t>
+    <t>下列哪一项不是常见的急症？（    ）</t>
   </si>
   <si>
     <t>头痛</t>
@@ -971,7 +980,7 @@
     <t>晕厥</t>
   </si>
   <si>
-    <t>下列哪一种情况不需要看急诊医生（     )</t>
+    <t>下列哪一种情况不需要看急诊医生（    ）</t>
   </si>
   <si>
     <t>器官功能受损</t>
@@ -986,7 +995,7 @@
     <t>慢性疾病稳定期，未到随访时间</t>
   </si>
   <si>
-    <t>下列哪一项不是头痛的伴随症状？（     )</t>
+    <t>下列哪一项不是头痛的伴随症状？（    ）</t>
   </si>
   <si>
     <t>伴随单侧肢体无力</t>
@@ -1001,7 +1010,7 @@
     <t>腰痛</t>
   </si>
   <si>
-    <t>用担架平稳搬运病人，不应（     )。</t>
+    <t>用担架平稳搬运病人，不应（    ）。</t>
   </si>
   <si>
     <t>尽量减少震动</t>
@@ -1016,7 +1025,7 @@
     <t>头朝下</t>
   </si>
   <si>
-    <t>以下不是胸腔内部结构的是（     )。</t>
+    <t>以下不是胸腔内部结构的是（    ）。</t>
   </si>
   <si>
     <t>肺</t>
@@ -1031,7 +1040,7 @@
     <t>子宫</t>
   </si>
   <si>
-    <t>下列哪一项不是“胸痛”的杀手？（     )</t>
+    <t>下列哪一项不是“胸痛”的杀手？（    ）</t>
   </si>
   <si>
     <t>急性冠脉综合征</t>
@@ -1046,7 +1055,7 @@
     <t>胃溃疡</t>
   </si>
   <si>
-    <t>下列哪一项不是早期带状疱疹的特点？（     )</t>
+    <t>下列哪一项不是早期带状疱疹的特点？（    ）</t>
   </si>
   <si>
     <t>发热</t>
@@ -1061,7 +1070,7 @@
     <t>确诊困难</t>
   </si>
   <si>
-    <t>心绞痛不会放射至（     )。</t>
+    <t>心绞痛不会放射至（    ）。</t>
   </si>
   <si>
     <t>左胸</t>
@@ -1076,7 +1085,7 @@
     <t>右胸</t>
   </si>
   <si>
-    <t>心绞痛常见的诱发因素不包括（     )。</t>
+    <t>心绞痛常见的诱发因素不包括（    ）。</t>
   </si>
   <si>
     <t>用力</t>
@@ -1091,7 +1100,7 @@
     <t>做家务</t>
   </si>
   <si>
-    <t>心绞痛持续的时间是（     )。</t>
+    <t>心绞痛持续的时间是（    ）。</t>
   </si>
   <si>
     <t>1-5分钟，一般不超过20分钟</t>
@@ -1106,7 +1115,7 @@
     <t>4-8分钟一般不超过20分钟</t>
   </si>
   <si>
-    <t>心肌梗塞发作时，病人常会有更严重的胸痛，且持续时间可长达（     )以上。</t>
+    <t>心肌梗塞发作时，病人常会有更严重的胸痛，且持续时间可长达（    ）以上。</t>
   </si>
   <si>
     <t>二十分钟</t>
@@ -1121,7 +1130,7 @@
     <t>五十分钟</t>
   </si>
   <si>
-    <t>以下哪一项不是心肌梗塞发作时的伴随症状（     )。</t>
+    <t>以下哪一项不是心肌梗塞发作时的伴随症状（    ）。</t>
   </si>
   <si>
     <t>血压降低</t>
@@ -1133,7 +1142,7 @@
     <t>出冷汗</t>
   </si>
   <si>
-    <t>下列哪一项不是心肌梗死的常备药物？（     )</t>
+    <t>下列哪一项不是心肌梗死的常备药物？（    ）</t>
   </si>
   <si>
     <t>阿司匹林</t>
@@ -1148,7 +1157,7 @@
     <t>速效救心丸</t>
   </si>
   <si>
-    <t>下列哪一项不是晕厥常见的疾病？（     )</t>
+    <t>下列哪一项不是晕厥常见的疾病？（    ）</t>
   </si>
   <si>
     <t>体位性低血压</t>
@@ -1160,7 +1169,7 @@
     <t>低血糖</t>
   </si>
   <si>
-    <t>下列哪一项不是晕厥现场救护的原则？（     )</t>
+    <t>下列哪一项不是晕厥现场救护的原则？（    ）</t>
   </si>
   <si>
     <t>马上协助伤员站立</t>
@@ -1175,7 +1184,7 @@
     <t>拨打120</t>
   </si>
   <si>
-    <t>下列哪一项不是糖尿病昏迷的类型：（     )。</t>
+    <t>下列哪一项不是糖尿病昏迷的类型：（    ）。</t>
   </si>
   <si>
     <t>糖尿病酮症酸中毒昏迷</t>
@@ -1190,7 +1199,7 @@
     <t>I型糖尿病</t>
   </si>
   <si>
-    <t>人的散热的方式有辐射、传导，对流和（     )。</t>
+    <t>人的散热的方式有辐射、传导，对流和（    ）。</t>
   </si>
   <si>
     <t>饮食</t>
@@ -1205,7 +1214,7 @@
     <t>蒸发</t>
   </si>
   <si>
-    <t>（     )是人在高温环境中，身体会大量出汗，丢失大量盐分，使血液中的钠含量过低，引起肌肉痉挛。</t>
+    <t>（    ）是人在高温环境中，身体会大量出汗，丢失大量盐分，使血液中的钠含量过低，引起肌肉痉挛。</t>
   </si>
   <si>
     <t>劳力性热射病</t>
@@ -1220,7 +1229,7 @@
     <t>非劳力性热射病</t>
   </si>
   <si>
-    <t>热射病的特征是（     )。</t>
+    <t>热射病的特征是（    ）。</t>
   </si>
   <si>
     <t>高热、神志障碍</t>
@@ -1235,7 +1244,7 @@
     <t>心率加快、低血压</t>
   </si>
   <si>
-    <t>电击伤应当紧急处理为（     )。</t>
+    <t>电击伤应当紧急处理为（    ）。</t>
   </si>
   <si>
     <t>口腔手术</t>
@@ -1247,7 +1256,7 @@
     <t>肾上腺素</t>
   </si>
   <si>
-    <t>关于冻伤的预防，叙述错误的是（     )。</t>
+    <t>关于冻伤的预防，叙述错误的是（    ）。</t>
   </si>
   <si>
     <t>防寒</t>
@@ -1262,7 +1271,7 @@
     <t>多饮酒</t>
   </si>
   <si>
-    <t>何谓关节脱位（     )。</t>
+    <t>何谓关节脱位（    ）。</t>
   </si>
   <si>
     <t>关节分离</t>
@@ -1277,7 +1286,7 @@
     <t>关节韧带断裂</t>
   </si>
   <si>
-    <t>关于烫伤的处理，下列错误的是（     )。</t>
+    <t>关于烫伤的处理，下列错误的是（    ）。</t>
   </si>
   <si>
     <t>立即离开烫伤源</t>
@@ -1292,7 +1301,7 @@
     <t>把贴在烫伤处的衣服用力扯掉</t>
   </si>
   <si>
-    <t>下列哪一项是需要立即进行电除颤（     )。</t>
+    <t>下列哪一项是需要立即进行电除颤（    ）。</t>
   </si>
   <si>
     <t>心室纤维性颤动</t>
@@ -1307,7 +1316,7 @@
     <t>以上都可以</t>
   </si>
   <si>
-    <t>骨折固定时，使用夹板长度应（     )。</t>
+    <t>骨折固定时，使用夹板长度应（    ）。</t>
   </si>
   <si>
     <t>超4个关节</t>
@@ -1322,16 +1331,16 @@
     <t>超1个关节</t>
   </si>
   <si>
-    <t>离断肢体，应该在（     )小时就医。</t>
-  </si>
-  <si>
-    <t>烧伤时应该用流动冷水冲洗（     )分钟为宜。</t>
+    <t>离断肢体，应该在（    ）小时就医。</t>
+  </si>
+  <si>
+    <t>烧伤时应该用流动冷水冲洗（    ）分钟为宜。</t>
   </si>
   <si>
     <t>15-30</t>
   </si>
   <si>
-    <t>心绞痛疼痛性质为（     )。</t>
+    <t>心绞痛疼痛性质为（    ）。</t>
   </si>
   <si>
     <t>紧缩压榨感</t>
@@ -1346,7 +1355,7 @@
     <t>持续痛</t>
   </si>
   <si>
-    <t>轻症中暑的体温通常会超过（     )。</t>
+    <t>轻症中暑的体温通常会超过（    ）。</t>
   </si>
   <si>
     <t>37℃</t>
@@ -1361,10 +1370,10 @@
     <t>40℃</t>
   </si>
   <si>
-    <t>冻伤病人采用温水复温时温度适应在（     )℃。</t>
-  </si>
-  <si>
-    <t>肩关节脱位最多见的类型是（     )。</t>
+    <t>冻伤病人采用温水复温时温度适应在（    ）℃。</t>
+  </si>
+  <si>
+    <t>肩关节脱位最多见的类型是（    ）。</t>
   </si>
   <si>
     <t>前脱位</t>
@@ -1379,7 +1388,7 @@
     <t>盂上脱位</t>
   </si>
   <si>
-    <t>踝关节扭伤的治疗，错误的是（     )。</t>
+    <t>踝关节扭伤的治疗，错误的是（    ）。</t>
   </si>
   <si>
     <t>早期冷疗、固定、制动</t>
@@ -1394,7 +1403,7 @@
     <t>恢复期应加强功能训练</t>
   </si>
   <si>
-    <t>烫伤急救五步：（     )。</t>
+    <t>烫伤急救五步：（    ）。</t>
   </si>
   <si>
     <t>冲--脱--泡--盖--送</t>
@@ -2263,6 +2272,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="46" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2790,14 +2805,14 @@
   <sheetPr/>
   <dimension ref="A1:J131"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="8.125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="5.875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="4.125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="7.825" style="4" customWidth="1"/>
     <col min="3" max="3" width="41.7083333333333" style="5" customWidth="1"/>
     <col min="4" max="8" width="12.8166666666667" style="6" customWidth="1"/>
     <col min="9" max="9" width="9" style="7"/>
@@ -3020,10 +3035,12 @@
       <c r="D9" s="14">
         <v>120</v>
       </c>
-      <c r="E9" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="14"/>
+      <c r="E9" s="14">
+        <v>119</v>
+      </c>
+      <c r="F9" s="14">
+        <v>8120</v>
+      </c>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
       <c r="I9" s="21" t="s">
@@ -3038,19 +3055,19 @@
         <v>9</v>
       </c>
       <c r="C10" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="E10" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="F10" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="G10" s="17" t="s">
         <v>31</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>32</v>
       </c>
       <c r="H10" s="17"/>
       <c r="I10" s="21" t="s">
@@ -3065,19 +3082,19 @@
         <v>9</v>
       </c>
       <c r="C11" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="E11" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="F11" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="G11" s="17" t="s">
         <v>36</v>
-      </c>
-      <c r="G11" s="17" t="s">
-        <v>37</v>
       </c>
       <c r="H11" s="17"/>
       <c r="I11" s="21" t="s">
@@ -3092,19 +3109,19 @@
         <v>9</v>
       </c>
       <c r="C12" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="E12" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="F12" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="17" t="s">
+      <c r="G12" s="17" t="s">
         <v>41</v>
-      </c>
-      <c r="G12" s="17" t="s">
-        <v>42</v>
       </c>
       <c r="H12" s="17"/>
       <c r="I12" s="21" t="s">
@@ -3119,19 +3136,19 @@
         <v>9</v>
       </c>
       <c r="C13" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="E13" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="F13" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="F13" s="20" t="s">
+      <c r="G13" s="20" t="s">
         <v>46</v>
-      </c>
-      <c r="G13" s="20" t="s">
-        <v>47</v>
       </c>
       <c r="H13" s="20"/>
       <c r="I13" s="21" t="s">
@@ -3146,19 +3163,19 @@
         <v>9</v>
       </c>
       <c r="C14" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="E14" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="E14" s="20" t="s">
+      <c r="F14" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="F14" s="20" t="s">
+      <c r="G14" s="20" t="s">
         <v>51</v>
-      </c>
-      <c r="G14" s="20" t="s">
-        <v>52</v>
       </c>
       <c r="H14" s="20"/>
       <c r="I14" s="21" t="s">
@@ -3173,19 +3190,19 @@
         <v>9</v>
       </c>
       <c r="C15" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="E15" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="E15" s="20" t="s">
+      <c r="F15" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="F15" s="20" t="s">
+      <c r="G15" s="20" t="s">
         <v>56</v>
-      </c>
-      <c r="G15" s="20" t="s">
-        <v>57</v>
       </c>
       <c r="H15" s="20"/>
       <c r="I15" s="21" t="s">
@@ -3200,19 +3217,19 @@
         <v>9</v>
       </c>
       <c r="C16" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="E16" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="E16" s="20" t="s">
+      <c r="F16" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="F16" s="20" t="s">
+      <c r="G16" s="20" t="s">
         <v>61</v>
-      </c>
-      <c r="G16" s="20" t="s">
-        <v>62</v>
       </c>
       <c r="H16" s="20"/>
       <c r="I16" s="21" t="s">
@@ -3227,19 +3244,19 @@
         <v>9</v>
       </c>
       <c r="C17" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="E17" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="E17" s="20" t="s">
+      <c r="F17" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="F17" s="20" t="s">
+      <c r="G17" s="20" t="s">
         <v>66</v>
-      </c>
-      <c r="G17" s="20" t="s">
-        <v>67</v>
       </c>
       <c r="H17" s="20"/>
       <c r="I17" s="21" t="s">
@@ -3254,19 +3271,19 @@
         <v>9</v>
       </c>
       <c r="C18" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="D18" s="22">
-        <v>1.25138888888889</v>
-      </c>
-      <c r="E18" s="23">
-        <v>0.626388888888889</v>
-      </c>
-      <c r="F18" s="23">
-        <v>0.625694444444444</v>
-      </c>
-      <c r="G18" s="23">
-        <v>0.209027777777778</v>
+      <c r="E18" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="G18" s="32" t="s">
+        <v>71</v>
       </c>
       <c r="H18" s="20"/>
       <c r="I18" s="21" t="s">
@@ -3281,19 +3298,19 @@
         <v>9</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G19" s="20" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H19" s="20"/>
       <c r="I19" s="21" t="s">
@@ -3308,19 +3325,19 @@
         <v>9</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F20" s="20" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G20" s="20" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H20" s="20"/>
       <c r="I20" s="21" t="s">
@@ -3335,19 +3352,19 @@
         <v>9</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E21" s="20" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F21" s="20" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G21" s="20" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H21" s="20"/>
       <c r="I21" s="21" t="s">
@@ -3362,19 +3379,19 @@
         <v>9</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F22" s="20" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G22" s="20" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H22" s="20"/>
       <c r="I22" s="21" t="s">
@@ -3389,19 +3406,19 @@
         <v>9</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E23" s="20" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F23" s="20" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G23" s="20" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="H23" s="20"/>
       <c r="I23" s="21" t="s">
@@ -3416,19 +3433,19 @@
         <v>9</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E24" s="20" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F24" s="20" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G24" s="20" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="H24" s="20"/>
       <c r="I24" s="21" t="s">
@@ -3443,19 +3460,19 @@
         <v>9</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E25" s="20" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F25" s="20" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G25" s="20" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="H25" s="20"/>
       <c r="I25" s="21" t="s">
@@ -3470,19 +3487,19 @@
         <v>9</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E26" s="20" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F26" s="20" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G26" s="20" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H26" s="20"/>
       <c r="I26" s="21" t="s">
@@ -3497,19 +3514,19 @@
         <v>9</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E27" s="20" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="F27" s="20" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G27" s="20" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H27" s="20"/>
       <c r="I27" s="21" t="s">
@@ -3524,19 +3541,19 @@
         <v>9</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E28" s="20" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F28" s="20" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="G28" s="20" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="H28" s="20"/>
       <c r="I28" s="21" t="s">
@@ -3551,19 +3568,19 @@
         <v>9</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E29" s="20" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F29" s="20" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="G29" s="20" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="H29" s="20"/>
       <c r="I29" s="21" t="s">
@@ -3578,19 +3595,19 @@
         <v>9</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E30" s="20" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F30" s="20" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="G30" s="20" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="H30" s="20"/>
       <c r="I30" s="21" t="s">
@@ -3605,19 +3622,19 @@
         <v>9</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E31" s="20" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F31" s="20" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="G31" s="20" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="H31" s="20"/>
       <c r="I31" s="21" t="s">
@@ -3632,19 +3649,19 @@
         <v>9</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E32" s="20" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F32" s="20" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="G32" s="20" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H32" s="20"/>
       <c r="I32" s="21" t="s">
@@ -3659,19 +3676,19 @@
         <v>9</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E33" s="20" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F33" s="20" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="G33" s="20" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="H33" s="20"/>
       <c r="I33" s="21" t="s">
@@ -3686,19 +3703,19 @@
         <v>9</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E34" s="20" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F34" s="20" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="G34" s="20" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="H34" s="20"/>
       <c r="I34" s="21" t="s">
@@ -3713,19 +3730,19 @@
         <v>9</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E35" s="20" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="F35" s="20" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="G35" s="20" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="H35" s="20"/>
       <c r="I35" s="21" t="s">
@@ -3740,19 +3757,19 @@
         <v>9</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E36" s="20" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F36" s="20" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="G36" s="20" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="H36" s="20"/>
       <c r="I36" s="21" t="s">
@@ -3767,19 +3784,19 @@
         <v>9</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E37" s="20" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="F37" s="20" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="G37" s="20" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="H37" s="20"/>
       <c r="I37" s="21" t="s">
@@ -3794,19 +3811,19 @@
         <v>9</v>
       </c>
       <c r="C38" s="21" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="E38" s="20" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="F38" s="20" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="G38" s="20" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H38" s="20"/>
       <c r="I38" s="21" t="s">
@@ -3821,19 +3838,19 @@
         <v>9</v>
       </c>
       <c r="C39" s="21" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E39" s="20" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="F39" s="20" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="G39" s="20" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="H39" s="20"/>
       <c r="I39" s="21" t="s">
@@ -3848,7 +3865,7 @@
         <v>9</v>
       </c>
       <c r="C40" s="21" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D40" s="14">
         <v>80</v>
@@ -3860,7 +3877,7 @@
         <v>60</v>
       </c>
       <c r="G40" s="20" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="H40" s="20"/>
       <c r="I40" s="21" t="s">
@@ -3875,7 +3892,7 @@
         <v>9</v>
       </c>
       <c r="C41" s="21" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D41" s="14">
         <v>6</v>
@@ -3887,7 +3904,7 @@
         <v>4</v>
       </c>
       <c r="G41" s="20" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="H41" s="20"/>
       <c r="I41" s="21" t="s">
@@ -3902,19 +3919,19 @@
         <v>9</v>
       </c>
       <c r="C42" s="21" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="E42" s="20" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="F42" s="20" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="G42" s="20" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="H42" s="20"/>
       <c r="I42" s="21" t="s">
@@ -3929,19 +3946,19 @@
         <v>9</v>
       </c>
       <c r="C43" s="21" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="E43" s="20" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F43" s="20" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="G43" s="20" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="H43" s="20"/>
       <c r="I43" s="21" t="s">
@@ -3956,19 +3973,19 @@
         <v>9</v>
       </c>
       <c r="C44" s="21" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D44" s="14" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E44" s="20" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="F44" s="20" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="G44" s="20" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="H44" s="20"/>
       <c r="I44" s="21" t="s">
@@ -3983,19 +4000,19 @@
         <v>9</v>
       </c>
       <c r="C45" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="D45" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="E45" s="20" t="s">
         <v>191</v>
       </c>
-      <c r="D45" s="14" t="s">
+      <c r="F45" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="E45" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="F45" s="20" t="s">
-        <v>189</v>
-      </c>
       <c r="G45" s="20" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="H45" s="20"/>
       <c r="I45" s="21" t="s">
@@ -4010,19 +4027,19 @@
         <v>9</v>
       </c>
       <c r="C46" s="21" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="E46" s="20" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="F46" s="20" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="G46" s="20" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="H46" s="20"/>
       <c r="I46" s="21" t="s">
@@ -4037,19 +4054,19 @@
         <v>9</v>
       </c>
       <c r="C47" s="24" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="E47" s="20" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="F47" s="20" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="G47" s="20" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="H47" s="20"/>
       <c r="I47" s="21" t="s">
@@ -4064,19 +4081,19 @@
         <v>9</v>
       </c>
       <c r="C48" s="21" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D48" s="14" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="E48" s="20" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="F48" s="20" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="G48" s="20" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="H48" s="20"/>
       <c r="I48" s="21" t="s">
@@ -4091,19 +4108,19 @@
         <v>9</v>
       </c>
       <c r="C49" s="21" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D49" s="14" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="E49" s="20" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="F49" s="20" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="G49" s="20" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="H49" s="20"/>
       <c r="I49" s="21" t="s">
@@ -4118,19 +4135,19 @@
         <v>9</v>
       </c>
       <c r="C50" s="21" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D50" s="14" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="E50" s="20" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="F50" s="20" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="G50" s="20" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="H50" s="20"/>
       <c r="I50" s="21" t="s">
@@ -4145,19 +4162,19 @@
         <v>9</v>
       </c>
       <c r="C51" s="24" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D51" s="14" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="E51" s="20" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="F51" s="20" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="G51" s="20" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="H51" s="20"/>
       <c r="I51" s="21" t="s">
@@ -4172,19 +4189,19 @@
         <v>9</v>
       </c>
       <c r="C52" s="21" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D52" s="14" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="E52" s="20" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="F52" s="20" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="G52" s="20" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="H52" s="20"/>
       <c r="I52" s="21" t="s">
@@ -4199,19 +4216,19 @@
         <v>9</v>
       </c>
       <c r="C53" s="21" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D53" s="14" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="E53" s="20" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="F53" s="20" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="G53" s="20" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="H53" s="20"/>
       <c r="I53" s="21" t="s">
@@ -4226,19 +4243,19 @@
         <v>9</v>
       </c>
       <c r="C54" s="21" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D54" s="14" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="E54" s="20" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="F54" s="20" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="G54" s="20" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="H54" s="20"/>
       <c r="I54" s="21" t="s">
@@ -4253,19 +4270,19 @@
         <v>9</v>
       </c>
       <c r="C55" s="21" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D55" s="14" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="E55" s="20" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="F55" s="20" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="G55" s="20" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="H55" s="20"/>
       <c r="I55" s="21" t="s">
@@ -4280,19 +4297,19 @@
         <v>9</v>
       </c>
       <c r="C56" s="21" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D56" s="14" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="E56" s="20" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="F56" s="20" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="G56" s="20" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="H56" s="20"/>
       <c r="I56" s="21" t="s">
@@ -4307,19 +4324,19 @@
         <v>9</v>
       </c>
       <c r="C57" s="21" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D57" s="14" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="E57" s="20" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="F57" s="20" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="G57" s="20" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="H57" s="20"/>
       <c r="I57" s="21" t="s">
@@ -4334,19 +4351,19 @@
         <v>9</v>
       </c>
       <c r="C58" s="21" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="D58" s="14" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="E58" s="20" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F58" s="20" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="G58" s="20" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="H58" s="20"/>
       <c r="I58" s="21" t="s">
@@ -4361,19 +4378,19 @@
         <v>9</v>
       </c>
       <c r="C59" s="21" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D59" s="14" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="E59" s="20" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F59" s="20" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="G59" s="20" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="H59" s="20"/>
       <c r="I59" s="21" t="s">
@@ -4388,19 +4405,19 @@
         <v>9</v>
       </c>
       <c r="C60" s="21" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="D60" s="14" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="E60" s="20" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="F60" s="20" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="G60" s="20" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="H60" s="20"/>
       <c r="I60" s="21" t="s">
@@ -4415,19 +4432,19 @@
         <v>9</v>
       </c>
       <c r="C61" s="21" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D61" s="14" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="E61" s="20" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="F61" s="20" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="G61" s="20" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="H61" s="20"/>
       <c r="I61" s="21" t="s">
@@ -4442,19 +4459,19 @@
         <v>9</v>
       </c>
       <c r="C62" s="21" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="D62" s="14" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="E62" s="20" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="F62" s="20" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="G62" s="20" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="H62" s="20"/>
       <c r="I62" s="21" t="s">
@@ -4469,19 +4486,19 @@
         <v>9</v>
       </c>
       <c r="C63" s="21" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="D63" s="14" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="E63" s="20" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="F63" s="20" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="G63" s="20" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="H63" s="20"/>
       <c r="I63" s="21" t="s">
@@ -4496,19 +4513,19 @@
         <v>9</v>
       </c>
       <c r="C64" s="21" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="D64" s="14" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="E64" s="20" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F64" s="20" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="G64" s="20" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="H64" s="20"/>
       <c r="I64" s="21" t="s">
@@ -4523,19 +4540,19 @@
         <v>9</v>
       </c>
       <c r="C65" s="21" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="D65" s="14" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="E65" s="20" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="F65" s="20" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="G65" s="20" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="H65" s="20"/>
       <c r="I65" s="21" t="s">
@@ -4550,19 +4567,19 @@
         <v>9</v>
       </c>
       <c r="C66" s="21" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="D66" s="14" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="E66" s="20" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="F66" s="20" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="G66" s="20" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="H66" s="20"/>
       <c r="I66" s="21" t="s">
@@ -4577,19 +4594,19 @@
         <v>9</v>
       </c>
       <c r="C67" s="21" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="D67" s="14" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="E67" s="20" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="F67" s="20" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="G67" s="20" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="H67" s="20"/>
       <c r="I67" s="21" t="s">
@@ -4604,19 +4621,19 @@
         <v>9</v>
       </c>
       <c r="C68" s="21" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="D68" s="14" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="E68" s="20" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="F68" s="20" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G68" s="20" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="H68" s="20"/>
       <c r="I68" s="21" t="s">
@@ -4631,19 +4648,19 @@
         <v>9</v>
       </c>
       <c r="C69" s="21" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="D69" s="14" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="E69" s="20" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="F69" s="20" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="G69" s="20" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="H69" s="20"/>
       <c r="I69" s="21" t="s">
@@ -4658,19 +4675,19 @@
         <v>9</v>
       </c>
       <c r="C70" s="24" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D70" s="14" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="E70" s="20" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="F70" s="20" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="G70" s="20" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="H70" s="20"/>
       <c r="I70" s="21" t="s">
@@ -4685,19 +4702,19 @@
         <v>9</v>
       </c>
       <c r="C71" s="21" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="D71" s="14" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="E71" s="20" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="F71" s="20" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="G71" s="20" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="H71" s="20"/>
       <c r="I71" s="21" t="s">
@@ -4712,19 +4729,19 @@
         <v>9</v>
       </c>
       <c r="C72" s="24" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="D72" s="14" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="E72" s="20" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="F72" s="20" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="G72" s="20" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="H72" s="20"/>
       <c r="I72" s="21" t="s">
@@ -4739,19 +4756,19 @@
         <v>9</v>
       </c>
       <c r="C73" s="21" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="D73" s="14" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="E73" s="20" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="F73" s="20" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="G73" s="20" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="H73" s="20"/>
       <c r="I73" s="21" t="s">
@@ -4766,19 +4783,19 @@
         <v>9</v>
       </c>
       <c r="C74" s="21" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="D74" s="14" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="E74" s="20" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="F74" s="20" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="G74" s="20" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="H74" s="20"/>
       <c r="I74" s="21" t="s">
@@ -4793,19 +4810,19 @@
         <v>9</v>
       </c>
       <c r="C75" s="21" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="D75" s="14" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="E75" s="20" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="F75" s="20" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="G75" s="20" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="H75" s="20"/>
       <c r="I75" s="21" t="s">
@@ -4820,19 +4837,19 @@
         <v>9</v>
       </c>
       <c r="C76" s="21" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="D76" s="14" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="E76" s="20" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="F76" s="20" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="G76" s="20" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="H76" s="20"/>
       <c r="I76" s="21" t="s">
@@ -4847,19 +4864,19 @@
         <v>9</v>
       </c>
       <c r="C77" s="21" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="D77" s="14" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="E77" s="20" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="F77" s="20" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="G77" s="20" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="H77" s="20"/>
       <c r="I77" s="21" t="s">
@@ -4874,19 +4891,19 @@
         <v>9</v>
       </c>
       <c r="C78" s="21" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="D78" s="14" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="E78" s="20" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="F78" s="20" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="G78" s="20" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="H78" s="20"/>
       <c r="I78" s="21" t="s">
@@ -4901,19 +4918,19 @@
         <v>9</v>
       </c>
       <c r="C79" s="21" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="D79" s="14" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="E79" s="20" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="F79" s="20" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="G79" s="20" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="H79" s="20"/>
       <c r="I79" s="21" t="s">
@@ -4928,19 +4945,19 @@
         <v>9</v>
       </c>
       <c r="C80" s="21" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="D80" s="14" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="E80" s="20" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="F80" s="20" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="G80" s="20" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="H80" s="20"/>
       <c r="I80" s="21" t="s">
@@ -4955,19 +4972,19 @@
         <v>9</v>
       </c>
       <c r="C81" s="21" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="D81" s="14" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="E81" s="20" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="F81" s="20" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="G81" s="20" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="H81" s="20"/>
       <c r="I81" s="21" t="s">
@@ -4982,19 +4999,19 @@
         <v>9</v>
       </c>
       <c r="C82" s="21" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="D82" s="14" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="E82" s="20" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="F82" s="20" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="G82" s="20" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="H82" s="20"/>
       <c r="I82" s="21" t="s">
@@ -5009,19 +5026,19 @@
         <v>9</v>
       </c>
       <c r="C83" s="21" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="D83" s="14" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="E83" s="20" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="F83" s="20" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="G83" s="20" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="H83" s="20"/>
       <c r="I83" s="21" t="s">
@@ -5036,19 +5053,19 @@
         <v>9</v>
       </c>
       <c r="C84" s="21" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="D84" s="14" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="E84" s="20" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="F84" s="20" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="G84" s="20" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="H84" s="20"/>
       <c r="I84" s="21" t="s">
@@ -5063,19 +5080,19 @@
         <v>9</v>
       </c>
       <c r="C85" s="21" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="D85" s="14" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="E85" s="20" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="F85" s="20" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="G85" s="20" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="H85" s="20"/>
       <c r="I85" s="21" t="s">
@@ -5090,19 +5107,19 @@
         <v>9</v>
       </c>
       <c r="C86" s="26" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="D86" s="14" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="E86" s="20" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="F86" s="20" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="G86" s="20" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="H86" s="20"/>
       <c r="I86" s="21" t="s">
@@ -5117,19 +5134,19 @@
         <v>9</v>
       </c>
       <c r="C87" s="21" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D87" s="14" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="E87" s="20" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="F87" s="20" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="G87" s="20" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="H87" s="20"/>
       <c r="I87" s="21" t="s">
@@ -5144,19 +5161,19 @@
         <v>9</v>
       </c>
       <c r="C88" s="21" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="D88" s="14" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="E88" s="20" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="F88" s="20" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="G88" s="20" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="H88" s="20"/>
       <c r="I88" s="21" t="s">
@@ -5171,19 +5188,19 @@
         <v>9</v>
       </c>
       <c r="C89" s="19" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="D89" s="14" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="E89" s="20" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="F89" s="20" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="G89" s="20" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="H89" s="20"/>
       <c r="I89" s="21" t="s">
@@ -5198,19 +5215,19 @@
         <v>9</v>
       </c>
       <c r="C90" s="21" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="D90" s="14" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="E90" s="20" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="F90" s="20" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="G90" s="20" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="H90" s="20"/>
       <c r="I90" s="21" t="s">
@@ -5225,19 +5242,19 @@
         <v>9</v>
       </c>
       <c r="C91" s="21" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="D91" s="14" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="E91" s="20" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="F91" s="20" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="G91" s="20" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="H91" s="20"/>
       <c r="I91" s="21" t="s">
@@ -5252,19 +5269,19 @@
         <v>9</v>
       </c>
       <c r="C92" s="27" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="D92" s="28" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="E92" s="28" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="F92" s="28" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="G92" s="28" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="H92" s="28"/>
       <c r="I92" s="20" t="s">
@@ -5280,19 +5297,19 @@
         <v>9</v>
       </c>
       <c r="C93" s="27" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="D93" s="28" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="E93" s="28" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="F93" s="28" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="G93" s="28" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="H93" s="28"/>
       <c r="I93" s="20" t="s">
@@ -5308,7 +5325,7 @@
         <v>9</v>
       </c>
       <c r="C94" s="27" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="D94" s="28">
         <v>8</v>
@@ -5336,7 +5353,7 @@
         <v>9</v>
       </c>
       <c r="C95" s="27" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="D95" s="28">
         <v>90</v>
@@ -5348,7 +5365,7 @@
         <v>50</v>
       </c>
       <c r="G95" s="28" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="H95" s="28"/>
       <c r="I95" s="20" t="s">
@@ -5364,19 +5381,19 @@
         <v>9</v>
       </c>
       <c r="C96" s="27" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="D96" s="28" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="E96" s="28" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="F96" s="28" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="G96" s="28" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="H96" s="28"/>
       <c r="I96" s="20" t="s">
@@ -5392,19 +5409,19 @@
         <v>9</v>
       </c>
       <c r="C97" s="27" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="D97" s="28" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="E97" s="28" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="F97" s="28" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="G97" s="28" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="H97" s="28"/>
       <c r="I97" s="20" t="s">
@@ -5420,7 +5437,7 @@
         <v>9</v>
       </c>
       <c r="C98" s="27" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="D98" s="28">
         <v>30</v>
@@ -5448,19 +5465,19 @@
         <v>9</v>
       </c>
       <c r="C99" s="27" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="D99" s="28" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="E99" s="28" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="F99" s="28" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="G99" s="28" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="H99" s="28"/>
       <c r="I99" s="20" t="s">
@@ -5476,19 +5493,19 @@
         <v>9</v>
       </c>
       <c r="C100" s="27" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="D100" s="28" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="E100" s="28" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="F100" s="28" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="G100" s="28" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="H100" s="28"/>
       <c r="I100" s="20" t="s">
@@ -5504,19 +5521,19 @@
         <v>9</v>
       </c>
       <c r="C101" s="27" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="D101" s="28" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="E101" s="28" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="F101" s="28" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="G101" s="28" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="H101" s="28"/>
       <c r="I101" s="20" t="s">
@@ -5529,22 +5546,22 @@
         <v>101</v>
       </c>
       <c r="B102" s="29" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C102" s="30" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="D102" s="20" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="E102" s="20" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="F102" s="20"/>
       <c r="G102" s="20"/>
       <c r="H102" s="20"/>
       <c r="I102" s="20" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -5552,22 +5569,22 @@
         <v>102</v>
       </c>
       <c r="B103" s="29" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C103" s="30" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="D103" s="20" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="E103" s="20" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="F103" s="20"/>
       <c r="G103" s="20"/>
       <c r="H103" s="20"/>
       <c r="I103" s="20" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -5575,22 +5592,22 @@
         <v>103</v>
       </c>
       <c r="B104" s="29" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C104" s="30" t="s">
+        <v>467</v>
+      </c>
+      <c r="D104" s="20" t="s">
         <v>464</v>
       </c>
-      <c r="D104" s="20" t="s">
-        <v>461</v>
-      </c>
       <c r="E104" s="20" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="F104" s="20"/>
       <c r="G104" s="20"/>
       <c r="H104" s="20"/>
       <c r="I104" s="20" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
     </row>
     <row r="105" ht="24" spans="1:9">
@@ -5598,22 +5615,22 @@
         <v>104</v>
       </c>
       <c r="B105" s="29" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C105" s="30" t="s">
+        <v>468</v>
+      </c>
+      <c r="D105" s="20" t="s">
+        <v>464</v>
+      </c>
+      <c r="E105" s="20" t="s">
         <v>465</v>
-      </c>
-      <c r="D105" s="20" t="s">
-        <v>461</v>
-      </c>
-      <c r="E105" s="20" t="s">
-        <v>462</v>
       </c>
       <c r="F105" s="20"/>
       <c r="G105" s="20"/>
       <c r="H105" s="20"/>
       <c r="I105" s="20" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -5621,22 +5638,22 @@
         <v>105</v>
       </c>
       <c r="B106" s="29" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C106" s="30" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="D106" s="20" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="E106" s="20" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="F106" s="20"/>
       <c r="G106" s="20"/>
       <c r="H106" s="20"/>
       <c r="I106" s="20" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -5644,22 +5661,22 @@
         <v>106</v>
       </c>
       <c r="B107" s="29" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C107" s="30" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="D107" s="20" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="E107" s="20" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="F107" s="20"/>
       <c r="G107" s="20"/>
       <c r="H107" s="20"/>
       <c r="I107" s="20" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -5667,22 +5684,22 @@
         <v>107</v>
       </c>
       <c r="B108" s="29" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C108" s="30" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="D108" s="20" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="E108" s="20" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="F108" s="20"/>
       <c r="G108" s="20"/>
       <c r="H108" s="20"/>
       <c r="I108" s="20" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
     </row>
     <row r="109" ht="24" spans="1:9">
@@ -5690,22 +5707,22 @@
         <v>108</v>
       </c>
       <c r="B109" s="29" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C109" s="30" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="D109" s="20" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="E109" s="20" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="F109" s="20"/>
       <c r="G109" s="20"/>
       <c r="H109" s="20"/>
       <c r="I109" s="20" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
     </row>
     <row r="110" ht="24" spans="1:9">
@@ -5713,22 +5730,22 @@
         <v>109</v>
       </c>
       <c r="B110" s="29" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C110" s="30" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="D110" s="20" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="E110" s="20" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="F110" s="20"/>
       <c r="G110" s="20"/>
       <c r="H110" s="20"/>
       <c r="I110" s="20" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
     </row>
     <row r="111" ht="24" spans="1:9">
@@ -5736,22 +5753,22 @@
         <v>110</v>
       </c>
       <c r="B111" s="29" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C111" s="30" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="D111" s="20" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="E111" s="20" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="F111" s="20"/>
       <c r="G111" s="20"/>
       <c r="H111" s="20"/>
       <c r="I111" s="20" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
     </row>
     <row r="112" ht="24" spans="1:9">
@@ -5759,22 +5776,22 @@
         <v>111</v>
       </c>
       <c r="B112" s="29" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C112" s="30" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="D112" s="20" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="E112" s="20" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="F112" s="20"/>
       <c r="G112" s="20"/>
       <c r="H112" s="20"/>
       <c r="I112" s="20" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -5782,22 +5799,22 @@
         <v>112</v>
       </c>
       <c r="B113" s="29" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C113" s="30" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="D113" s="20" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="E113" s="20" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="F113" s="20"/>
       <c r="G113" s="20"/>
       <c r="H113" s="20"/>
       <c r="I113" s="20" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
     </row>
     <row r="114" spans="1:9">
@@ -5805,22 +5822,22 @@
         <v>113</v>
       </c>
       <c r="B114" s="29" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C114" s="30" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="D114" s="20" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="E114" s="20" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="F114" s="20"/>
       <c r="G114" s="20"/>
       <c r="H114" s="20"/>
       <c r="I114" s="20" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -5828,22 +5845,22 @@
         <v>114</v>
       </c>
       <c r="B115" s="29" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C115" s="30" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="D115" s="20" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="E115" s="20" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="F115" s="20"/>
       <c r="G115" s="20"/>
       <c r="H115" s="20"/>
       <c r="I115" s="20" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -5851,22 +5868,22 @@
         <v>115</v>
       </c>
       <c r="B116" s="29" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C116" s="30" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="D116" s="20" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="E116" s="20" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="F116" s="20"/>
       <c r="G116" s="20"/>
       <c r="H116" s="20"/>
       <c r="I116" s="20" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
     </row>
     <row r="117" spans="1:9">
@@ -5874,22 +5891,22 @@
         <v>116</v>
       </c>
       <c r="B117" s="29" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C117" s="30" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="D117" s="20" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="E117" s="20" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="F117" s="20"/>
       <c r="G117" s="20"/>
       <c r="H117" s="20"/>
       <c r="I117" s="20" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -5897,22 +5914,22 @@
         <v>117</v>
       </c>
       <c r="B118" s="29" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C118" s="30" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="D118" s="20" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="E118" s="20" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="F118" s="20"/>
       <c r="G118" s="20"/>
       <c r="H118" s="20"/>
       <c r="I118" s="20" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
     </row>
     <row r="119" spans="1:9">
@@ -5920,22 +5937,22 @@
         <v>118</v>
       </c>
       <c r="B119" s="29" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C119" s="30" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="D119" s="20" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="E119" s="20" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="F119" s="20"/>
       <c r="G119" s="20"/>
       <c r="H119" s="20"/>
       <c r="I119" s="20" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -5943,22 +5960,22 @@
         <v>119</v>
       </c>
       <c r="B120" s="29" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C120" s="30" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="D120" s="20" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="E120" s="20" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="F120" s="20"/>
       <c r="G120" s="20"/>
       <c r="H120" s="20"/>
       <c r="I120" s="20" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
     </row>
     <row r="121" spans="1:9">
@@ -5966,22 +5983,22 @@
         <v>120</v>
       </c>
       <c r="B121" s="29" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C121" s="30" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="D121" s="20" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="E121" s="20" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="F121" s="20"/>
       <c r="G121" s="20"/>
       <c r="H121" s="20"/>
       <c r="I121" s="20" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
     </row>
     <row r="122" spans="1:9">
@@ -5989,22 +6006,22 @@
         <v>121</v>
       </c>
       <c r="B122" s="29" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C122" s="30" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="D122" s="20" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="E122" s="20" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="F122" s="20"/>
       <c r="G122" s="20"/>
       <c r="H122" s="20"/>
       <c r="I122" s="20" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
     </row>
     <row r="123" spans="1:9">
@@ -6012,22 +6029,22 @@
         <v>122</v>
       </c>
       <c r="B123" s="29" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C123" s="30" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="D123" s="20" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="E123" s="20" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="F123" s="20"/>
       <c r="G123" s="20"/>
       <c r="H123" s="20"/>
       <c r="I123" s="20" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
     </row>
     <row r="124" spans="1:9">
@@ -6035,22 +6052,22 @@
         <v>123</v>
       </c>
       <c r="B124" s="29" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C124" s="30" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="D124" s="20" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="E124" s="20" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="F124" s="20"/>
       <c r="G124" s="20"/>
       <c r="H124" s="20"/>
       <c r="I124" s="20" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
     </row>
     <row r="125" spans="1:9">
@@ -6058,22 +6075,22 @@
         <v>124</v>
       </c>
       <c r="B125" s="29" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C125" s="30" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="D125" s="20" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="E125" s="20" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="F125" s="20"/>
       <c r="G125" s="20"/>
       <c r="H125" s="20"/>
       <c r="I125" s="20" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
     </row>
     <row r="126" spans="1:9">
@@ -6081,22 +6098,22 @@
         <v>125</v>
       </c>
       <c r="B126" s="29" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C126" s="30" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="D126" s="20" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="E126" s="20" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="F126" s="20"/>
       <c r="G126" s="20"/>
       <c r="H126" s="20"/>
       <c r="I126" s="20" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
     </row>
     <row r="127" spans="1:9">
@@ -6104,22 +6121,22 @@
         <v>126</v>
       </c>
       <c r="B127" s="29" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C127" s="30" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="D127" s="20" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="E127" s="20" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="F127" s="20"/>
       <c r="G127" s="20"/>
       <c r="H127" s="20"/>
       <c r="I127" s="20" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
     </row>
     <row r="128" spans="1:9">
@@ -6127,22 +6144,22 @@
         <v>127</v>
       </c>
       <c r="B128" s="29" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C128" s="30" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="D128" s="20" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="E128" s="20" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="F128" s="20"/>
       <c r="G128" s="20"/>
       <c r="H128" s="20"/>
       <c r="I128" s="20" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
     </row>
     <row r="129" ht="24" spans="1:9">
@@ -6150,22 +6167,22 @@
         <v>128</v>
       </c>
       <c r="B129" s="29" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C129" s="30" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="D129" s="20" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="E129" s="20" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="F129" s="20"/>
       <c r="G129" s="20"/>
       <c r="H129" s="20"/>
       <c r="I129" s="20" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -6173,22 +6190,22 @@
         <v>129</v>
       </c>
       <c r="B130" s="29" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C130" s="30" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="D130" s="20" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="E130" s="20" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="F130" s="20"/>
       <c r="G130" s="20"/>
       <c r="H130" s="20"/>
       <c r="I130" s="20" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
     </row>
     <row r="131" ht="24" spans="1:9">
@@ -6196,22 +6213,22 @@
         <v>130</v>
       </c>
       <c r="B131" s="29" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C131" s="30" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="D131" s="20" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="E131" s="20" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="F131" s="20"/>
       <c r="G131" s="20"/>
       <c r="H131" s="20"/>
       <c r="I131" s="20" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
     </row>
   </sheetData>
